--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="898">
   <si>
     <t>anchor score</t>
   </si>
@@ -253,529 +253,529 @@
     <t>sick</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>love</t>
@@ -3073,10 +3073,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>0.8793103448275862</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7">
         <v>0.8297872340425532</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8">
         <v>0.825</v>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>0.8141025641025641</v>
@@ -3555,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11">
         <v>0.7952127659574468</v>
@@ -3655,28 +3655,28 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="K13">
-        <v>0.7709251101321586</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L13">
         <v>175</v>
       </c>
       <c r="M13">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3705,28 +3705,28 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K14">
-        <v>0.7006172839506173</v>
+        <v>0.6996466431095406</v>
       </c>
       <c r="L14">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="M14">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3755,16 +3755,16 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>0.6996466431095406</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="L15">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>0.9399999999999999</v>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3805,28 +3805,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>0.6865671641791045</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3855,28 +3855,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="K17">
-        <v>0.6705882352941176</v>
+        <v>0.6676470588235294</v>
       </c>
       <c r="L17">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M17">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3955,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K19">
         <v>0.6140350877192983</v>
@@ -4155,7 +4155,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K23">
         <v>0.4936708860759494</v>
@@ -4205,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K24">
         <v>0.4905660377358491</v>
@@ -4255,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K25">
         <v>0.4761904761904762</v>
@@ -4305,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K26">
         <v>0.4717444717444718</v>
@@ -4405,7 +4405,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K28">
         <v>0.4663461538461539</v>
@@ -4505,7 +4505,7 @@
         <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K30">
         <v>0.4444444444444444</v>
@@ -4555,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K31">
         <v>0.4375</v>
@@ -4605,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K32">
         <v>0.4315789473684211</v>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K34">
         <v>0.425531914893617</v>
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K35">
         <v>0.4102564102564102</v>
@@ -4955,7 +4955,7 @@
         <v>5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K39">
         <v>0.3946280991735537</v>
@@ -5005,7 +5005,7 @@
         <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K40">
         <v>0.3939393939393939</v>
@@ -5255,7 +5255,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K45">
         <v>0.3818181818181818</v>
@@ -5655,7 +5655,7 @@
         <v>18</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K53">
         <v>0.3428571428571429</v>
@@ -5705,7 +5705,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K54">
         <v>0.3428571428571429</v>
@@ -6355,7 +6355,7 @@
         <v>7</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K67">
         <v>0.323943661971831</v>
@@ -6405,7 +6405,7 @@
         <v>24</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K68">
         <v>0.3231707317073171</v>
@@ -6505,7 +6505,7 @@
         <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K70">
         <v>0.3180327868852459</v>
@@ -6555,7 +6555,7 @@
         <v>20</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K71">
         <v>0.3178294573643411</v>
@@ -6605,7 +6605,7 @@
         <v>8</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K72">
         <v>0.3170731707317073</v>
@@ -6684,25 +6684,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1875</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D74">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>288</v>
@@ -6734,25 +6734,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1818181818181818</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>14</v>
-      </c>
-      <c r="D75">
-        <v>14</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>63</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>289</v>
@@ -6784,13 +6784,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1764705882352941</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>290</v>
@@ -6834,13 +6834,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6852,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K77">
         <v>0.3050847457627119</v>
@@ -6884,13 +6884,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1612903225806452</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6902,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K78">
         <v>0.3008849557522124</v>
@@ -6934,13 +6934,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1578947368421053</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>291</v>
@@ -6990,22 +6990,22 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K80">
         <v>0.2978482446206115</v>
@@ -7040,16 +7040,16 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -7084,13 +7084,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7102,10 +7102,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K82">
         <v>0.2926829268292683</v>
@@ -7134,28 +7134,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1415929203539823</v>
+        <v>0.125</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K83">
         <v>0.2916666666666667</v>
@@ -7187,22 +7187,22 @@
         <v>0.125</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>293</v>
@@ -7237,22 +7237,22 @@
         <v>0.125</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>294</v>
@@ -7287,22 +7287,22 @@
         <v>0.125</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E86">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>295</v>
@@ -7337,22 +7337,22 @@
         <v>0.125</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E87">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F87">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>296</v>
@@ -7384,25 +7384,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.125</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>297</v>
@@ -7434,25 +7434,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="E89">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F89">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>298</v>
@@ -7484,25 +7484,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1237113402061856</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>299</v>
@@ -7534,25 +7534,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F91">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>300</v>
@@ -7584,25 +7584,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>301</v>
@@ -7634,25 +7634,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F93">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>302</v>
@@ -7684,25 +7684,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>303</v>
@@ -7734,25 +7734,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1052631578947368</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>304</v>
@@ -7784,28 +7784,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K96">
         <v>0.2739571589627959</v>
@@ -7887,22 +7887,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E98">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>306</v>
@@ -7987,25 +7987,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K100">
         <v>0.2688172043010753</v>
@@ -8034,7 +8034,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>308</v>
@@ -8084,7 +8084,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>309</v>
@@ -8140,16 +8140,16 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>11</v>
@@ -8187,22 +8187,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>311</v>
@@ -8240,16 +8240,16 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>11</v>
@@ -8287,22 +8287,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>313</v>
@@ -8334,13 +8334,13 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8352,10 +8352,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K107">
         <v>0.2602739726027397</v>
@@ -8384,13 +8384,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8402,10 +8402,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K108">
         <v>0.2592592592592592</v>
@@ -8437,25 +8437,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K109">
         <v>0.2592592592592592</v>
@@ -8487,10 +8487,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>314</v>
@@ -8534,28 +8534,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F111">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K111">
         <v>0.2504440497335702</v>
@@ -8584,25 +8584,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>315</v>
@@ -8634,25 +8634,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>316</v>
@@ -8684,25 +8684,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F114">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>317</v>
@@ -8737,22 +8737,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>318</v>
@@ -8784,25 +8784,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>319</v>
@@ -8834,25 +8834,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>320</v>
@@ -8884,25 +8884,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.0625</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>321</v>
@@ -8934,25 +8934,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>322</v>
@@ -8984,25 +8984,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.05932203389830509</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>59</v>
@@ -9034,28 +9034,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K121">
         <v>0.2467532467532468</v>
@@ -9084,25 +9084,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>323</v>
@@ -9137,22 +9137,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>324</v>
@@ -9190,13 +9190,13 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E124">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F124">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
@@ -9237,22 +9237,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E125">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F125">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>326</v>
@@ -9290,16 +9290,16 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>17</v>
@@ -9334,25 +9334,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.05555555555555555</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>328</v>
@@ -9384,25 +9384,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>329</v>
@@ -9434,13 +9434,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05454545454545454</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -9452,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K129">
         <v>0.2307692307692308</v>
@@ -9484,25 +9484,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F130">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>330</v>
@@ -9534,25 +9534,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>331</v>
@@ -9634,25 +9634,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F133">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>333</v>
@@ -9684,25 +9684,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05263157894736842</v>
+        <v>0.04867256637168142</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="E134">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F134">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>334</v>
@@ -9734,25 +9734,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>335</v>
@@ -9784,25 +9784,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.04867256637168142</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F136">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>336</v>
@@ -9834,28 +9834,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.04761904761904762</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="C137">
         <v>4</v>
       </c>
       <c r="D137">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E137">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F137">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K137">
         <v>0.2222222222222222</v>
@@ -9884,25 +9884,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E138">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F138">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>337</v>
@@ -9934,25 +9934,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.04705882352941176</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>338</v>
@@ -9984,25 +9984,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F140">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>339</v>
@@ -10034,28 +10034,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K141">
         <v>0.2207792207792208</v>
@@ -10084,25 +10084,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E142">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F142">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>340</v>
@@ -10140,13 +10140,13 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E143">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F143">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -10190,22 +10190,22 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>22</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K144">
         <v>0.2142857142857143</v>
@@ -10234,28 +10234,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K145">
         <v>0.2133333333333333</v>
@@ -10284,28 +10284,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K146">
         <v>0.2121212121212121</v>
@@ -10340,13 +10340,13 @@
         <v>2</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="F147">
-        <v>0.18</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -10355,7 +10355,7 @@
         <v>46</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K147">
         <v>0.2096774193548387</v>
@@ -10384,25 +10384,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04166666666666666</v>
+        <v>0.04048582995951417</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E148">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F148">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>342</v>
@@ -10434,28 +10434,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F149">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K149">
         <v>0.2075471698113208</v>
@@ -10484,25 +10484,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04048582995951417</v>
+        <v>0.04</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E150">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F150">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>343</v>
@@ -10537,22 +10537,22 @@
         <v>0.04</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>344</v>
@@ -10587,22 +10587,22 @@
         <v>0.04</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="E152">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F152">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>345</v>
@@ -10634,25 +10634,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>346</v>
@@ -10684,25 +10684,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>347</v>
@@ -10740,16 +10740,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>26</v>
@@ -10784,25 +10784,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>349</v>
@@ -10834,25 +10834,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>350</v>
@@ -10887,22 +10887,22 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>351</v>
@@ -10934,25 +10934,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F159">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>352</v>
@@ -10984,28 +10984,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K160">
         <v>0.2</v>
@@ -11034,28 +11034,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K161">
         <v>0.2</v>
@@ -11084,25 +11084,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F162">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>353</v>
@@ -11137,22 +11137,22 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>354</v>
@@ -11184,25 +11184,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03225806451612903</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E164">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>355</v>
@@ -11234,25 +11234,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F165">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>356</v>
@@ -11284,25 +11284,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03157894736842105</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>357</v>
@@ -11334,25 +11334,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>358</v>
@@ -11384,25 +11384,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0303030303030303</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F168">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>359</v>
@@ -11434,7 +11434,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>360</v>
@@ -11484,25 +11484,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0297029702970297</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>361</v>
@@ -11534,28 +11534,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K171">
         <v>0.2</v>
@@ -11584,25 +11584,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.02857142857142857</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>362</v>
@@ -11634,25 +11634,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>74</v>
@@ -11684,28 +11684,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0273972602739726</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K174">
         <v>0.1971830985915493</v>
@@ -11734,28 +11734,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K175">
         <v>0.1971830985915493</v>
@@ -11784,7 +11784,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11802,10 +11802,10 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K176">
         <v>0.1924705882352941</v>
@@ -11834,25 +11834,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.02631578947368421</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F177">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>363</v>
@@ -11884,13 +11884,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>364</v>
@@ -11934,25 +11934,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02531645569620253</v>
+        <v>0.025</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>365</v>
@@ -11984,13 +11984,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>366</v>
@@ -12034,7 +12034,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12052,10 +12052,10 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K181">
         <v>0.1904761904761905</v>
@@ -12090,16 +12090,16 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
         <v>40</v>
@@ -12134,25 +12134,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>368</v>
@@ -12184,25 +12184,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02439024390243903</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D184">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E184">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F184">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>369</v>
@@ -12234,25 +12234,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>370</v>
@@ -12284,28 +12284,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02238805970149254</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C186">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F186">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K186">
         <v>0.1838006230529595</v>
@@ -12340,22 +12340,22 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>44</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K187">
         <v>0.1838006230529595</v>
@@ -12387,25 +12387,25 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E188">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F188">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K188">
         <v>0.1830848995463383</v>
@@ -12434,25 +12434,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>44</v>
+        <v>644</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>371</v>
@@ -12484,25 +12484,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>372</v>
@@ -12534,25 +12534,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02127659574468085</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="C191">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D191">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="E191">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F191">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>644</v>
+        <v>280</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>373</v>
@@ -12584,25 +12584,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>374</v>
@@ -12634,25 +12634,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02097902097902098</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C193">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>280</v>
+        <v>47</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>375</v>
@@ -12684,25 +12684,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>376</v>
@@ -12734,25 +12734,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02083333333333333</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>377</v>
@@ -12784,25 +12784,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>378</v>
@@ -12834,25 +12834,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02013422818791946</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>379</v>
@@ -12884,7 +12884,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>380</v>
@@ -12934,25 +12934,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E199">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F199">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>381</v>
@@ -12984,28 +12984,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K200">
         <v>0.1794871794871795</v>
@@ -13034,25 +13034,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E201">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F201">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>382</v>
@@ -13084,28 +13084,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K202">
         <v>0.1774193548387097</v>
@@ -13134,25 +13134,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01869158878504673</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>383</v>
@@ -13184,25 +13184,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>384</v>
@@ -13234,25 +13234,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01785714285714286</v>
+        <v>0.01743264659270998</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>55</v>
+        <v>620</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>385</v>
@@ -13284,28 +13284,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E206">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F206">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K206">
         <v>0.1764705882352941</v>
@@ -13334,25 +13334,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01743264659270998</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="C207">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="E207">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F207">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>620</v>
+        <v>115</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>386</v>
@@ -13384,28 +13384,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E208">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F208">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K208">
         <v>0.1739130434782609</v>
@@ -13434,25 +13434,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0170940170940171</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E209">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F209">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>387</v>
@@ -13484,25 +13484,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01694915254237288</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>388</v>
@@ -13534,25 +13534,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E211">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>389</v>
@@ -13584,25 +13584,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01680672268907563</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>390</v>
@@ -13634,25 +13634,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01666666666666667</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>391</v>
@@ -13684,25 +13684,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>392</v>
@@ -13734,25 +13734,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01538461538461539</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D215">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E215">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>192</v>
+        <v>524</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>393</v>
@@ -13784,25 +13784,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01538461538461539</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>394</v>
@@ -13834,25 +13834,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01503759398496241</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C217">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>524</v>
+        <v>73</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>395</v>
@@ -13884,25 +13884,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01421800947867299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E218">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F218">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>396</v>
@@ -13934,25 +13934,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01351351351351351</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>397</v>
@@ -13984,25 +13984,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01234567901234568</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E220">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F220">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>398</v>
@@ -14034,25 +14034,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01075268817204301</v>
+        <v>0.01038062283737024</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>427</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>92</v>
+        <v>1716</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>399</v>
@@ -14084,25 +14084,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01052631578947368</v>
+        <v>0.01</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>400</v>
@@ -14134,25 +14134,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01038062283737024</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C223">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>427</v>
+        <v>6</v>
       </c>
       <c r="E223">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F223">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>1716</v>
+        <v>103</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>401</v>
@@ -14184,25 +14184,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>402</v>
@@ -14234,25 +14234,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.009615384615384616</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F225">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>403</v>
@@ -14284,25 +14284,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.009523809523809525</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="E226">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>104</v>
+        <v>422</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>404</v>
@@ -14334,25 +14334,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.009523809523809525</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>405</v>
@@ -14384,13 +14384,13 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.009389671361502348</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="E228">
         <v>0.97</v>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>422</v>
+        <v>108</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>406</v>
@@ -14434,25 +14434,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.009259259259259259</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>407</v>
@@ -14484,13 +14484,13 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.009174311926605505</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E230">
         <v>0.97</v>
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>408</v>
@@ -14534,25 +14534,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.008928571428571428</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E231">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F231">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>409</v>
@@ -14584,25 +14584,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.008695652173913044</v>
+        <v>0.008261211644374508</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D232">
-        <v>29</v>
+        <v>586</v>
       </c>
       <c r="E232">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F232">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>114</v>
+        <v>2521</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>410</v>
@@ -14634,25 +14634,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.008547008547008548</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F233">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>411</v>
@@ -14684,25 +14684,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.008261211644374508</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C234">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="E234">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F234">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>2521</v>
+        <v>123</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>412</v>
@@ -14734,25 +14734,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.008130081300813009</v>
+        <v>0.008042895442359249</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>122</v>
+        <v>370</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>413</v>
@@ -14784,7 +14784,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.008064516129032258</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14802,10 +14802,10 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K236">
         <v>0.1636363636363636</v>
@@ -14834,25 +14834,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.008042895442359249</v>
+        <v>0.006779661016949152</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>414</v>
@@ -14884,25 +14884,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.007352941176470588</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>415</v>
@@ -14934,25 +14934,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.006779661016949152</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F239">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>416</v>
@@ -14984,25 +14984,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.005952380952380952</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E240">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F240">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>167</v>
+        <v>810</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>417</v>
@@ -15034,25 +15034,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.00398406374501992</v>
+        <v>0.00297914597815293</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="E241">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>250</v>
+        <v>3012</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>418</v>
@@ -15084,28 +15084,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.003690036900369004</v>
+        <v>0.002808988764044944</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>810</v>
+        <v>355</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K242">
         <v>0.1593406593406593</v>
@@ -15134,25 +15134,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.00297914597815293</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="C243">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="E243">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F243">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>3012</v>
+        <v>942</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>419</v>
@@ -15184,25 +15184,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002808988764044944</v>
+        <v>0.001876172607879925</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>355</v>
+        <v>532</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>420</v>
@@ -15234,25 +15234,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.00211864406779661</v>
+        <v>0.001780943900267142</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E245">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F245">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>942</v>
+        <v>1121</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>421</v>
@@ -15280,32 +15280,8 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.001876172607879925</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>13</v>
-      </c>
-      <c r="E246">
-        <v>0.92</v>
-      </c>
-      <c r="F246">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>532</v>
-      </c>
       <c r="J246" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K246">
         <v>0.1538461538461539</v>
@@ -15330,30 +15306,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.001780943900267142</v>
-      </c>
-      <c r="C247">
-        <v>2</v>
-      </c>
-      <c r="D247">
-        <v>40</v>
-      </c>
-      <c r="E247">
-        <v>0.95</v>
-      </c>
-      <c r="F247">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247">
-        <v>1121</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>422</v>
       </c>
@@ -15485,7 +15437,7 @@
     </row>
     <row r="252" spans="1:17">
       <c r="J252" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K252">
         <v>0.1515151515151515</v>
@@ -15641,7 +15593,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K258">
         <v>0.1470588235294118</v>
@@ -15667,7 +15619,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K259">
         <v>0.1463414634146341</v>
@@ -15719,7 +15671,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K261">
         <v>0.144578313253012</v>
@@ -16239,7 +16191,7 @@
     </row>
     <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K281">
         <v>0.1428571428571428</v>
@@ -16577,7 +16529,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K294">
         <v>0.1397058823529412</v>
@@ -16603,7 +16555,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K295">
         <v>0.1388888888888889</v>
@@ -16993,7 +16945,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K310">
         <v>0.1296296296296296</v>
@@ -17019,7 +16971,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K311">
         <v>0.1287878787878788</v>
@@ -18137,7 +18089,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K354">
         <v>0.12</v>
@@ -18371,7 +18323,7 @@
     </row>
     <row r="363" spans="10:17">
       <c r="J363" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K363">
         <v>0.1149425287356322</v>
@@ -18657,7 +18609,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K374">
         <v>0.1111111111111111</v>
@@ -18865,7 +18817,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K382">
         <v>0.1111111111111111</v>
@@ -19021,7 +18973,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K388">
         <v>0.1111111111111111</v>
@@ -19073,7 +19025,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K390">
         <v>0.1111111111111111</v>
@@ -19333,7 +19285,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K400">
         <v>0.1081081081081081</v>
@@ -19541,7 +19493,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K408">
         <v>0.1</v>
@@ -19671,7 +19623,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K413">
         <v>0.1</v>
@@ -19957,7 +19909,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K424">
         <v>0.09876543209876543</v>
@@ -20321,7 +20273,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K438">
         <v>0.09090909090909091</v>
@@ -20347,7 +20299,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K439">
         <v>0.09090909090909091</v>
@@ -20841,7 +20793,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K458">
         <v>0.08695652173913043</v>
@@ -20867,7 +20819,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K459">
         <v>0.08661417322834646</v>
@@ -20919,7 +20871,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K461">
         <v>0.08571428571428572</v>
@@ -21933,7 +21885,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K500">
         <v>0.075</v>
@@ -22011,7 +21963,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K503">
         <v>0.07246376811594203</v>
@@ -22089,7 +22041,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K506">
         <v>0.07142857142857142</v>
@@ -22687,7 +22639,7 @@
     </row>
     <row r="529" spans="10:17">
       <c r="J529" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K529">
         <v>0.06896551724137931</v>
@@ -22791,7 +22743,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K533">
         <v>0.06818181818181818</v>
@@ -22921,7 +22873,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K538">
         <v>0.06666666666666667</v>
@@ -23311,7 +23263,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K553">
         <v>0.06382978723404255</v>
@@ -23337,7 +23289,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K554">
         <v>0.0625</v>
@@ -23363,7 +23315,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K555">
         <v>0.0625</v>
@@ -23909,7 +23861,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K576">
         <v>0.06</v>
@@ -24273,7 +24225,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K590">
         <v>0.05639097744360902</v>
@@ -24429,7 +24381,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K596">
         <v>0.05555555555555555</v>
@@ -24689,7 +24641,7 @@
     </row>
     <row r="606" spans="10:17">
       <c r="J606" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K606">
         <v>0.05263157894736842</v>
@@ -25261,7 +25213,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K628">
         <v>0.04629629629629629</v>
@@ -25729,7 +25681,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K646">
         <v>0.04081632653061224</v>
@@ -25885,7 +25837,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K652">
         <v>0.03937007874015748</v>
@@ -26119,7 +26071,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K661">
         <v>0.03703703703703703</v>
@@ -26249,7 +26201,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K666">
         <v>0.03571428571428571</v>
@@ -26561,7 +26513,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K678">
         <v>0.03278688524590164</v>
@@ -26613,7 +26565,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K680">
         <v>0.03225806451612903</v>
@@ -27081,7 +27033,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K698">
         <v>0.02857142857142857</v>
@@ -27627,7 +27579,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K719">
         <v>0.02484472049689441</v>
@@ -27965,7 +27917,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K732">
         <v>0.02205882352941177</v>
@@ -27991,7 +27943,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K733">
         <v>0.02127659574468085</v>
@@ -28017,7 +27969,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K734">
         <v>0.02127659574468085</v>
@@ -28095,7 +28047,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K737">
         <v>0.0202020202020202</v>
@@ -28251,7 +28203,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K743">
         <v>0.01764705882352941</v>
@@ -28407,7 +28359,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K749">
         <v>0.016</v>
@@ -28615,7 +28567,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K757">
         <v>0.0145985401459854</v>
@@ -28875,7 +28827,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K767">
         <v>0.01114206128133705</v>
@@ -28979,7 +28931,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K771">
         <v>0.009523809523809525</v>
@@ -29213,7 +29165,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K780">
         <v>0.00398406374501992</v>
